--- a/jiu_zhi_gan_lan/output/Q2_optimized_with_speed_check.xlsx
+++ b/jiu_zhi_gan_lan/output/Q2_optimized_with_speed_check.xlsx
@@ -492,13 +492,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17229.2988</v>
+        <v>17168.2784</v>
       </c>
       <c r="B2" t="n">
-        <v>27.4573</v>
+        <v>27.3839</v>
       </c>
       <c r="C2" t="n">
-        <v>1748.2734</v>
+        <v>1730.8352</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -507,19 +507,19 @@
         <v>140</v>
       </c>
       <c r="F2" t="n">
-        <v>177.2455</v>
+        <v>177.5179</v>
       </c>
       <c r="G2" t="n">
-        <v>17683.643</v>
+        <v>17693.769</v>
       </c>
       <c r="H2" t="n">
-        <v>5.5981</v>
+        <v>4.6049</v>
       </c>
       <c r="I2" t="n">
         <v>1800</v>
       </c>
       <c r="J2" t="n">
-        <v>3.3</v>
+        <v>6.7</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>

--- a/jiu_zhi_gan_lan/output/Q2_optimized_with_speed_check.xlsx
+++ b/jiu_zhi_gan_lan/output/Q2_optimized_with_speed_check.xlsx
@@ -492,13 +492,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17168.2784</v>
+        <v>17236.5272</v>
       </c>
       <c r="B2" t="n">
-        <v>27.3839</v>
+        <v>28.5568</v>
       </c>
       <c r="C2" t="n">
-        <v>1730.8352</v>
+        <v>1739.0373</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -507,19 +507,19 @@
         <v>140</v>
       </c>
       <c r="F2" t="n">
-        <v>177.5179</v>
+        <v>320.4226</v>
       </c>
       <c r="G2" t="n">
-        <v>17693.769</v>
+        <v>16855.9137</v>
       </c>
       <c r="H2" t="n">
-        <v>4.6049</v>
+        <v>343.1744</v>
       </c>
       <c r="I2" t="n">
-        <v>1800</v>
+        <v>1950</v>
       </c>
       <c r="J2" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
